--- a/docs/StructureDefinition-Task.xlsx
+++ b/docs/StructureDefinition-Task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T08:09:55+00:00</t>
+    <t>2024-03-01T08:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Task.xlsx
+++ b/docs/StructureDefinition-Task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T08:53:42+00:00</t>
+    <t>2024-03-04T08:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Will include UK Core if required</t>
+    <t>Based on FHIR Workflow</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>85</v>

--- a/docs/StructureDefinition-Task.xlsx
+++ b/docs/StructureDefinition-Task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T08:45:19+00:00</t>
+    <t>2024-03-09T08:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Task.xlsx
+++ b/docs/StructureDefinition-Task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-09T08:46:02+00:00</t>
+    <t>2024-04-02T05:59:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
